--- a/智联招聘企业总表11-20.xlsx
+++ b/智联招聘企业总表11-20.xlsx
@@ -3434,8 +3434,8 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
